--- a/data/output/FV2304_FV2210/UTILMD/11103.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11103.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="347">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="347">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1171,6 +1171,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U217" totalsRowShown="0">
+  <autoFilter ref="A1:U217"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,7 +1490,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11434,5 +11467,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11103.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11103.xlsx
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4504,7 +4504,7 @@
         <v>323</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4708,7 +4708,7 @@
         <v>324</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4912,7 +4912,7 @@
         <v>325</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5116,7 +5116,7 @@
         <v>325</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5320,7 +5320,7 @@
         <v>326</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5524,7 +5524,7 @@
         <v>327</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5678,7 +5678,7 @@
         <v>325</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5884,7 +5884,7 @@
         <v>328</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6264,7 +6264,7 @@
         <v>330</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6552,7 +6552,7 @@
         <v>331</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6910,7 +6910,7 @@
         <v>334</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7156,7 +7156,7 @@
         <v>336</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7870,7 +7870,7 @@
         <v>338</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8058,7 +8058,7 @@
         <v>339</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8342,7 +8342,7 @@
         <v>338</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8778,7 +8778,7 @@
         <v>340</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8930,7 +8930,7 @@
         <v>341</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9230,7 +9230,7 @@
         <v>342</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10210,7 +10210,7 @@
         <v>344</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10836,7 +10836,7 @@
         <v>346</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12084,7 +12084,7 @@
         <v>347</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N215" s="2"/>
